--- a/assets/resources/Interpretation_Template.xlsx
+++ b/assets/resources/Interpretation_Template.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ff24e4f1aa7cd16/Documents/Deleum/ToolStringEditor/assets/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{B7662879-79C9-4A8E-9E47-AD45963ABCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AD4053D-C61C-4080-9CB2-D79D8F641097}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{B7662879-79C9-4A8E-9E47-AD45963ABCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93B6A6AC-E001-4875-9860-3695D755A5A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D18-202L" sheetId="9" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'D18-202L'!$B$1:$V$81</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>FIELD</t>
   </si>
@@ -146,6 +149,39 @@
   <si>
     <t>static. grad</t>
   </si>
+  <si>
+    <t>(FT WLD)</t>
+  </si>
+  <si>
+    <t>SPM#</t>
+  </si>
+  <si>
+    <t>(FT SS)</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>SPM1</t>
+  </si>
+  <si>
+    <t>SPM2</t>
+  </si>
+  <si>
+    <t>SPM3</t>
+  </si>
+  <si>
+    <t>SPM4</t>
+  </si>
+  <si>
+    <t>SPM5</t>
+  </si>
+  <si>
+    <t>SPM6</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +191,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -292,8 +328,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial MT"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFE26B0A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE26B0A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +392,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -362,11 +454,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,23 +601,57 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1789,6 +1930,89 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>SPM Depths</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D18-202L'!$F$87:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D18-202L'!$G$87:$G$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-366C-4FBC-A2CD-021616331AEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1799,88 +2023,7 @@
         </c:dLbls>
         <c:axId val="63441152"/>
         <c:axId val="63439616"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>A!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="star"/>
-                  <c:size val="7"/>
-                  <c:spPr>
-                    <a:ln>
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:ln>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'D18-202L'!$J$78:$J$78</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="1"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'D18-202L'!$X$78:$X$78</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-366C-4FBC-A2CD-021616331AEC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="63554304"/>
@@ -2012,7 +2155,7 @@
                     </a:solidFill>
                     <a:latin typeface="Arial MT"/>
                   </a:rPr>
-                  <a:t> DEPTH (FT. AHD BDF</a:t>
+                  <a:t> DEPTH (FT. TVD BDF</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" strike="noStrike">
@@ -2266,6 +2409,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="A"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2562,8 +2718,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:IU198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:P33"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15.6"/>
@@ -4276,31 +4432,31 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="58" t="s">
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
       <c r="Q8" s="35"/>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57" t="s">
+      <c r="S8" s="55"/>
+      <c r="T8" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="57"/>
+      <c r="U8" s="54"/>
       <c r="V8" s="35" t="s">
         <v>14</v>
       </c>
@@ -4545,35 +4701,35 @@
       <c r="D9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="54" t="s">
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55" t="s">
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="54" t="s">
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="56" t="s">
+      <c r="R9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57" t="s">
+      <c r="S9" s="55"/>
+      <c r="T9" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="57"/>
+      <c r="U9" s="54"/>
       <c r="V9" s="31" t="s">
         <v>15</v>
       </c>
@@ -4853,14 +5009,14 @@
         <v>17</v>
       </c>
       <c r="Q10" s="21"/>
-      <c r="R10" s="55" t="s">
+      <c r="R10" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="54" t="s">
+      <c r="S10" s="57"/>
+      <c r="T10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="U10" s="54"/>
+      <c r="U10" s="53"/>
       <c r="W10" s="9"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -25812,12 +25968,24 @@
     </row>
     <row r="86" spans="1:255">
       <c r="A86" s="11"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
+      <c r="B86" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" s="63" t="s">
+        <v>40</v>
+      </c>
       <c r="H86" s="33"/>
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
@@ -26068,12 +26236,25 @@
     </row>
     <row r="87" spans="1:255">
       <c r="A87" s="11"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="66">
+        <f>B87+$R$5</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="67">
+        <v>757.06748253265255</v>
+      </c>
+      <c r="F87" s="68" t="e">
+        <f>0.93*MEDIAN($J$13:$J$82)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G87" s="69">
+        <f>-D87</f>
+        <v>0</v>
+      </c>
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
       <c r="J87" s="33"/>
@@ -26323,12 +26504,25 @@
     </row>
     <row r="88" spans="1:255">
       <c r="A88" s="11"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="66">
+        <f t="shared" ref="D88:D92" si="30">B88+$R$5</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="67">
+        <v>876.78558333069577</v>
+      </c>
+      <c r="F88" s="68" t="e">
+        <f t="shared" ref="F88:F92" si="31">0.93*MEDIAN($J$13:$J$82)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G88" s="69">
+        <f t="shared" ref="G88:G92" si="32">-D88</f>
+        <v>0</v>
+      </c>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
@@ -26577,12 +26771,25 @@
     </row>
     <row r="89" spans="1:255">
       <c r="A89" s="11"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="66">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="67">
+        <v>1304.3874485182519</v>
+      </c>
+      <c r="F89" s="68" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G89" s="69">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="H89" s="33"/>
       <c r="I89" s="33"/>
       <c r="J89" s="33"/>
@@ -26831,12 +27038,25 @@
     </row>
     <row r="90" spans="1:255">
       <c r="A90" s="11"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="66">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="67">
+        <v>1680.8277750551663</v>
+      </c>
+      <c r="F90" s="68" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G90" s="69">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="H90" s="33"/>
       <c r="I90" s="33"/>
       <c r="J90" s="33"/>
@@ -27085,12 +27305,25 @@
     </row>
     <row r="91" spans="1:255">
       <c r="A91" s="11"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" s="66">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="67">
+        <v>1986.3494664932878</v>
+      </c>
+      <c r="F91" s="68" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G91" s="69">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="H91" s="33"/>
       <c r="I91" s="33"/>
       <c r="J91" s="33"/>
@@ -27339,12 +27572,25 @@
     </row>
     <row r="92" spans="1:255">
       <c r="A92" s="11"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="66">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="67">
+        <v>2233.5416808521895</v>
+      </c>
+      <c r="F92" s="68" t="e">
+        <f t="shared" si="31"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G92" s="69">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="H92" s="33"/>
       <c r="I92" s="33"/>
       <c r="J92" s="33"/>
@@ -53453,18 +53699,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="K8:P8"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
